--- a/SeleniumAPTIMAS/aptimas.xlsx
+++ b/SeleniumAPTIMAS/aptimas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Alit\Kuliah\Informatics Research Center\Otomasi HAKI\SeleniumAPTIMAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Otomasi Haki\Otomasi-Haki-master\SeleniumAPTIMAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC52F1C0-B0B4-4D92-8D0B-AEE490AF01A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E9751C-6017-4117-AC93-FE7BA86A12AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Judul</t>
   </si>
@@ -57,9 +57,6 @@
     <t>File Pengalihan</t>
   </si>
   <si>
-    <t>Alamat Lengkap</t>
-  </si>
-  <si>
     <t>20-02-27</t>
   </si>
   <si>
@@ -91,6 +88,24 @@
   </si>
   <si>
     <t>Mengupload buku dengan menggunakan otomasi Informatics Research Center</t>
+  </si>
+  <si>
+    <t>Alamat Lengkap Pengaju utama</t>
+  </si>
+  <si>
+    <t>File Surat Kuasa</t>
+  </si>
+  <si>
+    <t>File NPWP</t>
+  </si>
+  <si>
+    <t>File UMKM</t>
+  </si>
+  <si>
+    <t>File Badan Huku</t>
+  </si>
+  <si>
+    <t>Jenis Permohonan</t>
   </si>
 </sst>
 </file>
@@ -416,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,9 +449,10 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="64" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,45 +484,75 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
